--- a/Public_data/Input_CDW_part1/EURAL_codes_CDW.xlsx
+++ b/Public_data/Input_CDW_part1/EURAL_codes_CDW.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10909"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11014"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rusnesileryte/Documents/GitHub/geoFluxus/Public_data/Input_CDW_part1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F07DDB22-F522-5B49-8E85-39D11FFE5D07}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D5C14C8-8198-9D40-A023-8BA1BB5C5182}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="160" yWindow="-20120" windowWidth="18060" windowHeight="17360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="79">
   <si>
     <t>beton</t>
   </si>
@@ -133,9 +133,6 @@
     <t>bouw- en sloopafval dat PCBs bevat (bv. PCB-houdende kit, vloerbedekkingen waarin PCB-houdende hars is verwerkt, isolerende beglazing met PCB-houdende afdichting, PCB-houdende condensatoren)</t>
   </si>
   <si>
-    <t>grond en stenen</t>
-  </si>
-  <si>
     <t>Non-hazardous</t>
   </si>
   <si>
@@ -149,6 +146,117 @@
   </si>
   <si>
     <t>Haz</t>
+  </si>
+  <si>
+    <t>170101</t>
+  </si>
+  <si>
+    <t>170102</t>
+  </si>
+  <si>
+    <t>170103</t>
+  </si>
+  <si>
+    <t>170106</t>
+  </si>
+  <si>
+    <t>170107</t>
+  </si>
+  <si>
+    <t>170201</t>
+  </si>
+  <si>
+    <t>170202</t>
+  </si>
+  <si>
+    <t>170203</t>
+  </si>
+  <si>
+    <t>170204</t>
+  </si>
+  <si>
+    <t>170301</t>
+  </si>
+  <si>
+    <t>170302</t>
+  </si>
+  <si>
+    <t>170303</t>
+  </si>
+  <si>
+    <t>170401</t>
+  </si>
+  <si>
+    <t>170402</t>
+  </si>
+  <si>
+    <t>170403</t>
+  </si>
+  <si>
+    <t>170404</t>
+  </si>
+  <si>
+    <t>170405</t>
+  </si>
+  <si>
+    <t>170406</t>
+  </si>
+  <si>
+    <t>170407</t>
+  </si>
+  <si>
+    <t>170409</t>
+  </si>
+  <si>
+    <t>170410</t>
+  </si>
+  <si>
+    <t>170411</t>
+  </si>
+  <si>
+    <t>170503</t>
+  </si>
+  <si>
+    <t>170504</t>
+  </si>
+  <si>
+    <t>170505</t>
+  </si>
+  <si>
+    <t>170506</t>
+  </si>
+  <si>
+    <t>170508</t>
+  </si>
+  <si>
+    <t>170601</t>
+  </si>
+  <si>
+    <t>170603</t>
+  </si>
+  <si>
+    <t>170604</t>
+  </si>
+  <si>
+    <t>170605</t>
+  </si>
+  <si>
+    <t>170801</t>
+  </si>
+  <si>
+    <t>170802</t>
+  </si>
+  <si>
+    <t>170901</t>
+  </si>
+  <si>
+    <t>170902</t>
+  </si>
+  <si>
+    <t>170903</t>
+  </si>
+  <si>
+    <t>170904</t>
   </si>
 </sst>
 </file>
@@ -207,10 +315,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -550,441 +670,430 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>170101</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>170102</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="A3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>170103</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="A4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>170106</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="A5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>170107</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="A6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>170201</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="A7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>170202</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="A8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>170203</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="A9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>170204</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="A10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>170301</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="A11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>170302</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="A12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>170303</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="A13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>170401</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="A14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>170402</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="A15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>170403</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="A16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>170404</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="A17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>170405</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="A18" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>170406</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="A19" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>170407</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="A20" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>170409</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="A21" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>170410</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="A22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>170411</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="A23" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>170503</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="A24" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>170504</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="A25" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>170505</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="A26" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>170506</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="A27" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>170508</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="A28" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>170601</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="A29" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>170603</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="A30" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>170604</v>
-      </c>
-      <c r="B31" t="s">
+      <c r="A31" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>170605</v>
-      </c>
-      <c r="B32" t="s">
+      <c r="A32" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>170801</v>
-      </c>
-      <c r="B33" t="s">
+      <c r="A33" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>170802</v>
-      </c>
-      <c r="B34" t="s">
+      <c r="A34" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>170901</v>
-      </c>
-      <c r="B35" t="s">
+      <c r="A35" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35" s="5" t="s">
         <v>33</v>
       </c>
       <c r="C35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>170902</v>
-      </c>
-      <c r="B36" t="s">
+      <c r="A36" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>170903</v>
-      </c>
-      <c r="B37" t="s">
+      <c r="A37" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>170904</v>
-      </c>
-      <c r="B38" t="s">
+      <c r="A38" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C38" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>200202</v>
-      </c>
-      <c r="B39" t="s">
-        <v>37</v>
-      </c>
-      <c r="C39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Public_data/Input_CDW_part1/EURAL_codes_CDW.xlsx
+++ b/Public_data/Input_CDW_part1/EURAL_codes_CDW.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rusnesileryte/Documents/GitHub/geoFluxus/Public_data/Input_CDW_part1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D5C14C8-8198-9D40-A023-8BA1BB5C5182}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E6A0B3-4CCF-D442-92E0-05F2D7817EDC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="-20120" windowWidth="18060" windowHeight="17360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="160" yWindow="460" windowWidth="10040" windowHeight="17360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -673,7 +673,7 @@
   <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/Public_data/Input_CDW_part1/EURAL_codes_CDW.xlsx
+++ b/Public_data/Input_CDW_part1/EURAL_codes_CDW.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rusnesileryte/Documents/GitHub/geoFluxus/Public_data/Input_CDW_part1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E6A0B3-4CCF-D442-92E0-05F2D7817EDC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EE7D8B8-DC94-D24E-982D-0E0A7C0C1517}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="460" windowWidth="10040" windowHeight="17360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10140" yWindow="-19920" windowWidth="10040" windowHeight="17360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="85">
   <si>
     <t>beton</t>
   </si>
@@ -31,9 +31,6 @@
     <t>tegels en keramische producten</t>
   </si>
   <si>
-    <t>mengsels van beton, stenen, tegels of keramische producten, of afzonderlijke fracties daarvan, die gevaarlijke stoffen bevatten</t>
-  </si>
-  <si>
     <t>niet onder 17 01 06 vallende mengsels van beton, stenen, tegels of keramische producten</t>
   </si>
   <si>
@@ -46,9 +43,6 @@
     <t>kunststof</t>
   </si>
   <si>
-    <t>glas, kunststof en hout die gevaarlijke stoffen bevatten of daarmee verontreinigd zijn</t>
-  </si>
-  <si>
     <t>bitumineuze mengsels die koolteer bevatten</t>
   </si>
   <si>
@@ -79,24 +73,12 @@
     <t>gemengde metalen</t>
   </si>
   <si>
-    <t>metaalafval dat met gevaarlijke stoffen is verontreinigd</t>
-  </si>
-  <si>
-    <t>kabels die olie, koolteer of andere gevaarlijke stoffen bevatten</t>
-  </si>
-  <si>
     <t>niet onder 17 04 10 vallende kabels</t>
   </si>
   <si>
-    <t>grond en stenen die gevaarlijke stoffen bevatten</t>
-  </si>
-  <si>
     <t>niet onder 17 05 03 vallende grond en stenen</t>
   </si>
   <si>
-    <t>baggerspecie die gevaarlijke stoffen bevat</t>
-  </si>
-  <si>
     <t>niet onder 17 05 05 vallende baggerspecie</t>
   </si>
   <si>
@@ -106,33 +88,21 @@
     <t>asbesthoudend isolatiemateriaal</t>
   </si>
   <si>
-    <t>overig isolatiemateriaal dat uit gevaarlijke stoffen bestaat of dergelijke stoffen bevat</t>
-  </si>
-  <si>
     <t>niet onder 17 06 01 en 17 06 03 vallend isolatiemateriaal</t>
   </si>
   <si>
     <t>asbesthoudend bouwmateriaal</t>
   </si>
   <si>
-    <t>gipshoudend bouwmateriaal dat met gevaarlijke stoffen is verontreinigd</t>
-  </si>
-  <si>
     <t>niet onder 17 08 01 vallend gipshoudend bouwmateriaal</t>
   </si>
   <si>
     <t>bouw- en sloopafval dat kwik bevat</t>
   </si>
   <si>
-    <t>overig bouw- en sloopafval (inclusief gemengd afval) dat gevaarlijke stoffen bevat</t>
-  </si>
-  <si>
     <t>niet onder 17 09 01, 17 09 02 en 17 09 03 vallend gemengd bouw- en sloopafval</t>
   </si>
   <si>
-    <t>bouw- en sloopafval dat PCBs bevat (bv. PCB-houdende kit, vloerbedekkingen waarin PCB-houdende hars is verwerkt, isolerende beglazing met PCB-houdende afdichting, PCB-houdende condensatoren)</t>
-  </si>
-  <si>
     <t>Non-hazardous</t>
   </si>
   <si>
@@ -257,6 +227,54 @@
   </si>
   <si>
     <t>170904</t>
+  </si>
+  <si>
+    <t>bouw- en sloopafval dat PCB's bevat (bv. PCB-houdende kit, vloerbedekkingen waarin PCB-houdende hars is verwerkt, isolerende beglazing met PCB-houdende afdichting, PCB-houdende condensatoren)</t>
+  </si>
+  <si>
+    <t>200202</t>
+  </si>
+  <si>
+    <t>grond en stenen</t>
+  </si>
+  <si>
+    <t>200137</t>
+  </si>
+  <si>
+    <t>200138</t>
+  </si>
+  <si>
+    <t>niet onder 20 01 37 vallend hout</t>
+  </si>
+  <si>
+    <t>mengsels van beton, stenen, tegels of keramische producten, of afzonderlijke fracties daarvan, die Hazardouse stoffen bevatten</t>
+  </si>
+  <si>
+    <t>glas, kunststof en hout die Hazardouse stoffen bevatten of daarmee verontreinigd zijn</t>
+  </si>
+  <si>
+    <t>metaalafval dat met Hazardouse stoffen is verontreinigd</t>
+  </si>
+  <si>
+    <t>kabels die olie, koolteer of andere Hazardouse stoffen bevatten</t>
+  </si>
+  <si>
+    <t>grond en stenen die Hazardouse stoffen bevatten</t>
+  </si>
+  <si>
+    <t>baggerspecie die Hazardouse stoffen bevat</t>
+  </si>
+  <si>
+    <t>overig isolatiemateriaal dat uit Hazardouse stoffen bestaat of dergelijke stoffen bevat</t>
+  </si>
+  <si>
+    <t>gipshoudend bouwmateriaal dat met Hazardouse stoffen is verontreinigd</t>
+  </si>
+  <si>
+    <t>overig bouw- en sloopafval (inclusief gemengd afval) dat Hazardouse stoffen bevat</t>
+  </si>
+  <si>
+    <t>hout dat Hazardouse stoffen bevat</t>
   </si>
 </sst>
 </file>
@@ -670,430 +688,466 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="27.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>8</v>
+        <v>76</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="C22" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C23" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="C24" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C25" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="C26" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C27" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C28" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C29" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="C30" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C31" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C32" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="C33" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C34" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C35" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="C36" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="C37" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C38" t="s">
-        <v>37</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>70</v>
+      </c>
+      <c r="B39" t="s">
+        <v>71</v>
+      </c>
+      <c r="C39" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>72</v>
+      </c>
+      <c r="B40" t="s">
+        <v>84</v>
+      </c>
+      <c r="C40" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>73</v>
+      </c>
+      <c r="B41" t="s">
+        <v>74</v>
+      </c>
+      <c r="C41" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
